--- a/results/MLP_parallel/s_MLP_parallel_data_insilico_seed_25_2025-02-09_PH_120/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_data_insilico_seed_25_2025-02-09_PH_120/output.xlsx
@@ -511,28 +511,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.4990741</t>
+          <t>1.6290518</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.174326</t>
+          <t>1.2421384</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -571,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.031659</t>
+          <t>2.0300112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.3719181</t>
+          <t>1.371424</t>
         </is>
       </c>
       <c r="D5" t="n">
